--- a/excelHandler/bin/Debug/net7.0/origin/myworkbook.xlsx
+++ b/excelHandler/bin/Debug/net7.0/origin/myworkbook.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>Last Name</t>
   </si>
@@ -47,21 +50,21 @@
     <t>Abril</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>15/10/2017</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Hashimoto</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>15/10/2017</t>
-  </si>
-  <si>
-    <t>Mara</t>
-  </si>
-  <si>
-    <t>Hashimoto</t>
-  </si>
-  <si>
     <t>Great Britain</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>Unknow</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>Ascencio</t>
   </si>
   <si>
@@ -270,12 +276,6 @@
   </si>
   <si>
     <t>Pfau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -382,23 +382,23 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,117 +724,118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1025" width="11.5"/>
+    <col min="1" max="1" width="100" customWidth="1"/>
+    <col min="2" max="1025" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>1562</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" ht="14">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0">
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5">
         <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6">
         <v>2587</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="14">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
@@ -849,875 +850,875 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0">
+        <v>24</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>3598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0">
         <v>2456</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="0">
         <v>6548</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0">
         <v>5486</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="0">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="0">
         <v>1258</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0">
         <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>2579</v>
       </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K13" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="0">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0">
+        <v>3256</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="H14">
-        <v>3256</v>
-      </c>
-      <c r="L14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="B15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" s="0">
+        <v>26</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="0">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="0">
+        <v>31</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="0">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="0">
+        <v>24</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="0">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H15">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>3579</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="0">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="0">
         <v>6597</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0">
         <v>26</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="0">
+        <v>9654</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H20">
-        <v>9654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="F21" s="0">
+        <v>46</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>3569</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>2564</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="B23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>52</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="0">
+        <v>8561</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H23">
-        <v>8561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>46</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="0">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H24">
+      <c r="F25" s="0">
+        <v>42</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="0">
         <v>5489</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="26">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F25">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="E26" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H25">
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>21</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>6574</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27">
+      <c r="B27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="0">
         <v>28</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="0">
         <v>5555</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="0">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H28">
-        <v>6125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0">
         <v>5412</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>41</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="0">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H30">
-        <v>3256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>28</v>
       </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="0">
         <v>3264</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32">
+      <c r="B32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="0">
         <v>37</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>4569</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33">
+      <c r="B33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="0">
         <v>34</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="0">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H33">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>26</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="0">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H34">
-        <v>6458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" s="0">
+        <v>35</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="0">
+        <v>7569</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F35">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35">
-        <v>7569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>36</v>
       </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="0">
         <v>8514</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>29</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0">
         <v>8563</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38">
+      <c r="B38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="0">
         <v>27</v>
       </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="0">
         <v>8642</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>25</v>
       </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39">
+      <c r="G39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="0">
         <v>9536</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B14"/>
   </mergeCells>
@@ -1739,13 +1740,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="100" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" s="0">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>